--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="463">
   <si>
     <t>description</t>
   </si>
@@ -1454,13 +1454,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1908,8 +1911,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2540,8 +2731,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3707,6 +4204,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3714,7 +4775,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3975,49 +5036,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="72" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4342,7 +5493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5554,7 +6705,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
@@ -5562,7 +6713,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
@@ -5570,7 +6721,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62">
@@ -5578,7 +6729,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -5586,7 +6737,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -5594,7 +6745,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65">
@@ -5602,7 +6753,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5610,7 +6761,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5618,7 +6769,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -5626,7 +6777,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5634,7 +6785,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5642,7 +6793,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5650,7 +6801,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -5658,7 +6809,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -5666,7 +6817,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -5674,7 +6825,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -5682,7 +6833,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5690,7 +6841,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5698,7 +6849,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5706,7 +6857,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -5714,7 +6865,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -5722,7 +6873,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>459</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -5730,7 +6881,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82">
@@ -5738,7 +6889,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -5746,7 +6897,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -5754,7 +6905,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5762,7 +6913,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5770,7 +6921,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5778,7 +6929,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -5786,7 +6937,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -5794,7 +6945,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -5802,7 +6953,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91">
@@ -5810,7 +6961,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -5818,101 +6969,106 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1457,13 +1457,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="115" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2099,8 +2105,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3037,8 +3137,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4768,6 +5021,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4775,7 +5310,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5126,49 +5661,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5493,7 +6073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6593,7 +7173,7 @@
         <v>342</v>
       </c>
       <c r="U45" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
@@ -6601,7 +7181,7 @@
         <v>211</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -6609,7 +7189,7 @@
         <v>320</v>
       </c>
       <c r="U47" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6617,7 +7197,7 @@
         <v>339</v>
       </c>
       <c r="U48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -6625,7 +7205,7 @@
         <v>368</v>
       </c>
       <c r="U49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -6633,7 +7213,7 @@
         <v>302</v>
       </c>
       <c r="U50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -6641,7 +7221,7 @@
         <v>356</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6649,7 +7229,7 @@
         <v>331</v>
       </c>
       <c r="U52" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -6657,7 +7237,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -6665,7 +7245,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -6673,7 +7253,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -6681,7 +7261,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -6689,7 +7269,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -6697,7 +7277,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -6705,7 +7285,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>462</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -6713,7 +7293,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61">
@@ -6721,7 +7301,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
@@ -6729,7 +7309,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
@@ -6737,7 +7317,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -6745,7 +7325,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -7029,46 +7609,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1463,13 +1463,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="115" x14ac:knownFonts="1">
+  <fonts count="160" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2199,8 +2217,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3290,8 +3590,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5303,6 +6062,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5310,7 +6915,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5706,49 +7311,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="102" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="117" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="132" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="135" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6073,7 +7813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6399,6 +8139,9 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
+      <c r="D5" t="s">
+        <v>465</v>
+      </c>
       <c r="E5" t="s">
         <v>336</v>
       </c>
@@ -6492,7 +8235,7 @@
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>469</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
@@ -6547,6 +8290,9 @@
       <c r="U7" t="s">
         <v>99</v>
       </c>
+      <c r="V7" t="s">
+        <v>470</v>
+      </c>
       <c r="W7" t="s">
         <v>181</v>
       </c>
@@ -6597,6 +8343,9 @@
       <c r="U8" t="s">
         <v>100</v>
       </c>
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
       <c r="W8" t="s">
         <v>182</v>
       </c>
@@ -6665,7 +8414,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -6700,7 +8449,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -6732,7 +8481,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6760,6 +8509,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
@@ -6910,7 +8662,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -6927,7 +8679,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -6943,6 +8695,9 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>109</v>
       </c>
@@ -7317,7 +9072,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>138</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64">
@@ -7325,7 +9080,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -7333,7 +9088,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -7341,7 +9096,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7349,7 +9104,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7357,7 +9112,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -7365,7 +9120,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -7373,7 +9128,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -7381,7 +9136,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -7389,7 +9144,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -7397,7 +9152,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -7405,7 +9160,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -7413,7 +9168,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -7421,7 +9176,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7429,7 +9184,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7437,7 +9192,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -7445,7 +9200,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7453,7 +9208,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7461,7 +9216,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>459</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -7469,7 +9224,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83">
@@ -7477,7 +9232,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84">
@@ -7485,7 +9240,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -7493,7 +9248,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -7501,7 +9256,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -7509,7 +9264,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -7517,7 +9272,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -7525,7 +9280,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7533,7 +9288,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7541,7 +9296,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
@@ -7549,111 +9304,116 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1487,7 +1487,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="160" x14ac:knownFonts="1">
+  <fonts count="175" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2499,8 +2499,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4049,8 +4143,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6908,6 +7155,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6915,7 +7444,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="201">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7446,49 +7975,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="147" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -1481,13 +1481,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="175" x14ac:knownFonts="1">
+  <fonts count="205" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2593,8 +2599,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4296,8 +4490,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7437,6 +7937,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7444,7 +8508,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="231">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8020,49 +9084,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="162" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8575,7 +9729,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8649,7 +9803,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -8720,7 +9874,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -8782,7 +9936,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8838,13 +9992,13 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8894,13 +10048,13 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -8946,11 +10100,14 @@
       <c r="E9" t="s">
         <v>306</v>
       </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
       <c r="I9" t="s">
         <v>390</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>91</v>
@@ -8984,11 +10141,14 @@
       <c r="E10" t="s">
         <v>352</v>
       </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>467</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -9023,7 +10183,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -9055,7 +10215,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -9084,7 +10244,7 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -9111,6 +10271,9 @@
       </c>
       <c r="I14" t="s">
         <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>94</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1487,13 +1487,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="205" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2787,8 +2802,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4796,8 +4905,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8501,6 +8763,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8508,7 +9052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9174,49 +9718,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9649,7 +10238,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>474</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -9729,7 +10318,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9803,7 +10392,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -9874,7 +10463,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -9936,7 +10525,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>472</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -9992,7 +10581,7 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -10048,7 +10637,7 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10101,7 +10690,7 @@
         <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>477</v>
       </c>
       <c r="I9" t="s">
         <v>390</v>
@@ -10142,7 +10731,7 @@
         <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10179,6 +10768,9 @@
       <c r="E11" t="s">
         <v>274</v>
       </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10211,6 +10803,9 @@
       <c r="E12" t="s">
         <v>263</v>
       </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
       <c r="I12" t="s">
         <v>80</v>
       </c>
@@ -10240,6 +10835,9 @@
       <c r="E13" t="s">
         <v>316</v>
       </c>
+      <c r="F13" t="s">
+        <v>325</v>
+      </c>
       <c r="I13" t="s">
         <v>81</v>
       </c>
@@ -10444,7 +11042,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>473</v>
       </c>
       <c r="E23" t="s">
         <v>290</v>
@@ -10458,7 +11056,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
         <v>279</v>
@@ -10472,7 +11070,7 @@
         <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -10486,7 +11084,7 @@
         <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
         <v>282</v>
@@ -10497,7 +11095,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -10508,7 +11106,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -10519,7 +11117,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>284</v>
@@ -10530,7 +11128,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>216</v>
@@ -10541,7 +11139,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>275</v>
@@ -10552,7 +11150,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>285</v>
@@ -10563,7 +11161,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>260</v>
@@ -10573,6 +11171,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" t="s">
         <v>330</v>
       </c>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{33203C22-133F-404E-873C-31BD14816BB2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{817CFBF2-DE66-B14A-8EE8-50B1103100CC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
     <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>saveLocation(var)</t>
-  </si>
-  <si>
-    <t>savePageAsFile(sessionIdName,url,fileName)</t>
   </si>
   <si>
     <t>scrollLeft(locator,pixel)</t>
@@ -1443,15 +1440,9 @@
     <t>${aut : error : expected}</t>
   </si>
   <si>
-    <t>jsSelect(locator,text)</t>
-  </si>
-  <si>
     <t>savePageAsFile(sessionIdName,url,file)</t>
   </si>
   <si>
-    <t>saveTableAsCsv(locator,file)</t>
-  </si>
-  <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
   <si>
@@ -1482,9 +1473,6 @@
     <t>replyOK(text)</t>
   </si>
   <si>
-    <t>csv(file,worksheet,range,header,output)</t>
-  </si>
-  <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
   <si>
@@ -1501,6 +1489,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1502,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,1136 +1762,8 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="382">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3222,1844 +2088,8 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="395">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -5661,3390 +2691,6 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9052,7 +2698,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9157,19 +2803,19 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9223,589 +2869,49 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="25" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="27" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="30" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="32" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="33" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="34" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="34" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="36" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="37" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="37" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="42" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="43" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="45" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="47" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="49" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="57" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="58" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="60" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="62" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="63" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="70" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="72" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="73" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="78" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="79" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="81" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="85" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="87" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="88" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="92" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="93" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="94" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="96" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="97" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="100" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="102" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="103" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="107" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="108" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="109" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="111" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="112" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="115" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="117" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="118" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="122" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="123" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="124" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="126" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="127" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="130" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="132" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="133" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="135" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="137" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="138" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="139" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="141" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="142" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="145" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="147" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="148" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="150" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="152" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="153" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="154" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="156" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="157" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="160" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="162" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="163" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="165" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="167" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="168" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="169" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="171" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="172" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="175" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="177" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="178" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="180" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="182" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="183" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="184" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="186" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="187" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="190" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="192" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="193" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="195" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="197" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="198" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="199" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="201" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="202" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10130,7 +3236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10146,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -10164,43 +3270,43 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O1" t="s">
         <v>52</v>
       </c>
       <c r="P1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>411</v>
+      </c>
+      <c r="R1" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" t="s">
         <v>396</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>412</v>
-      </c>
-      <c r="R1" t="s">
-        <v>413</v>
-      </c>
-      <c r="S1" t="s">
-        <v>357</v>
-      </c>
-      <c r="T1" t="s">
-        <v>397</v>
       </c>
       <c r="U1" t="s">
         <v>53</v>
@@ -10215,18 +3321,18 @@
         <v>56</v>
       </c>
       <c r="Y1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
         <v>371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -10238,67 +3344,67 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R2" t="s">
         <v>419</v>
       </c>
-      <c r="R2" t="s">
-        <v>420</v>
-      </c>
       <c r="S2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U2" t="s">
         <v>96</v>
       </c>
       <c r="V2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
@@ -10306,13 +3412,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -10324,55 +3430,55 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U3" t="s">
         <v>97</v>
       </c>
       <c r="V3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -10380,7 +3486,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -10389,19 +3495,19 @@
         <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -10410,40 +3516,40 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Z4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
@@ -10451,22 +3557,22 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I5" t="s">
         <v>71</v>
@@ -10478,37 +3584,37 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -10516,16 +3622,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10537,34 +3643,34 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U6" t="s">
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="W6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -10572,72 +3678,72 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U7" t="s">
         <v>99</v>
       </c>
       <c r="V7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="W7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10649,31 +3755,31 @@
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U8" t="s">
         <v>100</v>
       </c>
       <c r="V8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
@@ -10681,19 +3787,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -10702,36 +3808,36 @@
         <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10740,22 +3846,22 @@
         <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -10763,48 +3869,48 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
       </c>
       <c r="N11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U11" t="s">
+        <v>257</v>
+      </c>
+      <c r="X11" t="s">
         <v>258</v>
       </c>
-      <c r="X11" t="s">
-        <v>259</v>
-      </c>
       <c r="Z11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -10816,13 +3922,13 @@
         <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U12" t="s">
         <v>101</v>
       </c>
       <c r="X12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
@@ -10833,10 +3939,10 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -10848,24 +3954,24 @@
         <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
@@ -10877,13 +3983,13 @@
         <v>94</v>
       </c>
       <c r="N14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U14" t="s">
         <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
@@ -10891,10 +3997,10 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" t="s">
         <v>83</v>
@@ -10903,41 +4009,41 @@
         <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U15" t="s">
         <v>103</v>
       </c>
       <c r="X15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U16" t="s">
         <v>74</v>
       </c>
       <c r="X16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -10954,7 +4060,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -10963,7 +4069,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U18" t="s">
         <v>105</v>
@@ -10971,13 +4077,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I19" t="s">
         <v>84</v>
@@ -10988,16 +4094,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -11008,10 +4114,10 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -11028,7 +4134,7 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I22" t="s">
         <v>46</v>
@@ -11042,10 +4148,10 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U23" t="s">
         <v>110</v>
@@ -11056,10 +4162,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U24" t="s">
         <v>111</v>
@@ -11067,10 +4173,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -11081,13 +4187,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U26" t="s">
         <v>113</v>
@@ -11098,10 +4204,10 @@
         <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28">
@@ -11109,7 +4215,7 @@
         <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U28" t="s">
         <v>114</v>
@@ -11120,7 +4226,7 @@
         <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U29" t="s">
         <v>115</v>
@@ -11131,7 +4237,7 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U30" t="s">
         <v>116</v>
@@ -11142,7 +4248,7 @@
         <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U31" t="s">
         <v>117</v>
@@ -11153,7 +4259,7 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U32" t="s">
         <v>118</v>
@@ -11164,7 +4270,7 @@
         <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U33" t="s">
         <v>119</v>
@@ -11175,15 +4281,15 @@
         <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U35" t="s">
         <v>120</v>
@@ -11191,26 +4297,26 @@
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
@@ -11223,7 +4329,7 @@
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U40" t="s">
         <v>122</v>
@@ -11231,7 +4337,7 @@
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U41" t="s">
         <v>123</v>
@@ -11239,7 +4345,7 @@
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U42" t="s">
         <v>124</v>
@@ -11247,7 +4353,7 @@
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U43" t="s">
         <v>125</v>
@@ -11255,7 +4361,7 @@
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U44" t="s">
         <v>126</v>
@@ -11263,23 +4369,23 @@
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U45" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U47" t="s">
         <v>76</v>
@@ -11287,7 +4393,7 @@
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U48" t="s">
         <v>127</v>
@@ -11295,7 +4401,7 @@
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U49" t="s">
         <v>128</v>
@@ -11303,7 +4409,7 @@
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U50" t="s">
         <v>129</v>
@@ -11311,7 +4417,7 @@
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U51" t="s">
         <v>130</v>
@@ -11319,15 +4425,15 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U53" t="s">
         <v>131</v>
@@ -11335,7 +4441,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U54" t="s">
         <v>132</v>
@@ -11343,7 +4449,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U55" t="s">
         <v>133</v>
@@ -11351,7 +4457,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U56" t="s">
         <v>134</v>
@@ -11359,7 +4465,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U57" t="s">
         <v>135</v>
@@ -11367,7 +4473,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U58" t="s">
         <v>136</v>
@@ -11375,7 +4481,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U59" t="s">
         <v>137</v>
@@ -11383,39 +4489,39 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U60" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U64" t="s">
         <v>138</v>
@@ -11423,7 +4529,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U65" t="s">
         <v>139</v>
@@ -11431,7 +4537,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U66" t="s">
         <v>140</v>
@@ -11439,7 +4545,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U67" t="s">
         <v>141</v>
@@ -11447,23 +4553,23 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U70" t="s">
         <v>142</v>
@@ -11471,7 +4577,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U71" t="s">
         <v>143</v>
@@ -11479,7 +4585,7 @@
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U72" t="s">
         <v>144</v>
@@ -11487,7 +4593,7 @@
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U73" t="s">
         <v>145</v>
@@ -11495,7 +4601,7 @@
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U74" t="s">
         <v>146</v>
@@ -11503,256 +4609,261 @@
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>459</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>464</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -11801,38 +4912,38 @@
         <v>20</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
     </row>
     <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="2"/>
@@ -11860,13 +4971,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>2</v>
@@ -11905,17 +5016,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -11935,13 +5046,13 @@
         <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -11960,13 +5071,13 @@
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -11985,13 +5096,13 @@
         <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -12006,7 +5117,7 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>53</v>
@@ -12015,7 +5126,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -12024,7 +5135,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="2"/>
       <c r="L9" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="13"/>
@@ -12033,27 +5144,27 @@
     <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
@@ -12064,7 +5175,7 @@
     <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>53</v>
@@ -12073,14 +5184,14 @@
         <v>122</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1496,13 +1496,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1762,8 +1765,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2088,8 +2185,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2691,6 +2941,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2698,7 +3230,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2869,49 +3401,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3236,7 +3813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4572,7 +5149,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>142</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
@@ -4580,7 +5157,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -4588,7 +5165,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -4596,7 +5173,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -4604,7 +5181,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -4612,7 +5189,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -4620,7 +5197,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77">
@@ -4628,7 +5205,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -4636,7 +5213,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>200</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
@@ -4644,7 +5221,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -4652,7 +5229,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -4660,7 +5237,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
@@ -4668,7 +5245,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -4676,7 +5253,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>457</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -4684,7 +5261,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85">
@@ -4692,7 +5269,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86">
@@ -4700,7 +5277,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -4708,7 +5285,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -4716,7 +5293,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -4724,7 +5301,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -4732,7 +5309,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91">
@@ -4740,7 +5317,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -4748,121 +5325,126 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>461</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1499,13 +1499,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1859,8 +1862,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2338,8 +2435,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3223,6 +3473,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3230,7 +3762,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3446,49 +3978,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="43" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4146,7 +4723,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
         <v>347</v>
@@ -4208,7 +4785,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4264,7 +4841,7 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -4320,7 +4897,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -4373,7 +4950,7 @@
         <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
         <v>389</v>
@@ -4414,7 +4991,7 @@
         <v>351</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>473</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -4452,7 +5029,7 @@
         <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -4487,7 +5064,7 @@
         <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -4519,7 +5096,7 @@
         <v>315</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -4549,6 +5126,9 @@
       </c>
       <c r="E14" t="s">
         <v>263</v>
+      </c>
+      <c r="F14" t="s">
+        <v>324</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1502,13 +1502,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1956,8 +1959,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2588,8 +2779,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3755,6 +4252,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3762,7 +4823,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4023,49 +5084,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="57" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="72" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="75" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5131,7 +6282,7 @@
         <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -5160,7 +6311,7 @@
         <v>264</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>95</v>
@@ -5186,7 +6337,7 @@
         <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
         <v>251</v>
@@ -5209,7 +6360,7 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
@@ -5226,7 +6377,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>105</v>
@@ -5243,7 +6394,7 @@
         <v>295</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="U19" t="s">
         <v>106</v>
@@ -5260,7 +6411,7 @@
         <v>296</v>
       </c>
       <c r="I20" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -5277,7 +6428,7 @@
         <v>297</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -5294,7 +6445,7 @@
         <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>109</v>
@@ -5309,6 +6460,9 @@
       </c>
       <c r="E23" t="s">
         <v>289</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>110</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1505,13 +1505,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="130" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2147,8 +2153,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3085,8 +3279,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4816,6 +5316,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4823,7 +5887,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5174,49 +6238,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="87" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="102" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="105" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5720,7 +6874,7 @@
         <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>364</v>
@@ -5794,7 +6948,7 @@
         <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -5865,7 +7019,7 @@
         <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>462</v>
@@ -5930,7 +7084,7 @@
         <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>387</v>
@@ -5986,7 +7140,7 @@
         <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
         <v>365</v>
@@ -6042,7 +7196,7 @@
         <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>366</v>
@@ -6095,7 +7249,7 @@
         <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>305</v>
@@ -6136,7 +7290,7 @@
         <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
         <v>351</v>
@@ -6174,7 +7328,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
         <v>273</v>
@@ -6209,7 +7363,7 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
         <v>262</v>
@@ -6241,7 +7395,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
         <v>315</v>
@@ -6273,7 +7427,7 @@
         <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>263</v>
@@ -6305,7 +7459,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>385</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>264</v>
@@ -6331,7 +7485,7 @@
         <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
         <v>316</v>
@@ -6354,7 +7508,7 @@
         <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>385</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
@@ -6371,7 +7525,7 @@
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -6388,7 +7542,7 @@
         <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>295</v>
@@ -6405,7 +7559,7 @@
         <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>296</v>
@@ -6422,7 +7576,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="E21" t="s">
         <v>297</v>
@@ -6439,7 +7593,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>298</v>
@@ -6456,7 +7610,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>469</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
         <v>289</v>
@@ -6473,7 +7627,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -6487,7 +7641,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>469</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -6501,7 +7655,7 @@
         <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="E26" t="s">
         <v>281</v>
@@ -6512,7 +7666,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
         <v>265</v>
@@ -6523,7 +7677,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="E28" t="s">
         <v>282</v>
@@ -6534,7 +7688,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>283</v>
@@ -6545,7 +7699,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -6556,7 +7710,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>274</v>
@@ -6567,7 +7721,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>284</v>
@@ -6578,7 +7732,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>259</v>
@@ -6589,7 +7743,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>329</v>
@@ -6599,6 +7753,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
       <c r="E35" t="s">
         <v>306</v>
       </c>
@@ -6607,6 +7764,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" t="s">
         <v>260</v>
       </c>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1511,13 +1511,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="130" x14ac:knownFonts="1">
+  <fonts count="145" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2341,8 +2344,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3585,8 +3682,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5880,6 +6130,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5887,7 +6419,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6328,49 +6860,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="117" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6695,7 +7272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7907,7 +8484,7 @@
         <v>267</v>
       </c>
       <c r="U53" t="s">
-        <v>131</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
@@ -7915,7 +8492,7 @@
         <v>291</v>
       </c>
       <c r="U54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
@@ -7923,7 +8500,7 @@
         <v>292</v>
       </c>
       <c r="U55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -7931,7 +8508,7 @@
         <v>293</v>
       </c>
       <c r="U56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -7939,7 +8516,7 @@
         <v>302</v>
       </c>
       <c r="U57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
@@ -7947,7 +8524,7 @@
         <v>311</v>
       </c>
       <c r="U58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -7955,7 +8532,7 @@
         <v>336</v>
       </c>
       <c r="U59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
@@ -7963,7 +8540,7 @@
         <v>308</v>
       </c>
       <c r="U60" t="s">
-        <v>459</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -7971,7 +8548,7 @@
         <v>309</v>
       </c>
       <c r="U61" t="s">
-        <v>213</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62">
@@ -7979,7 +8556,7 @@
         <v>368</v>
       </c>
       <c r="U62" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63">
@@ -7987,7 +8564,7 @@
         <v>369</v>
       </c>
       <c r="U63" t="s">
-        <v>465</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64">
@@ -7995,7 +8572,7 @@
         <v>344</v>
       </c>
       <c r="U64" t="s">
-        <v>138</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65">
@@ -8003,7 +8580,7 @@
         <v>312</v>
       </c>
       <c r="U65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -8011,7 +8588,7 @@
         <v>268</v>
       </c>
       <c r="U66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
@@ -8019,7 +8596,7 @@
         <v>352</v>
       </c>
       <c r="U67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -8027,7 +8604,7 @@
         <v>313</v>
       </c>
       <c r="U68" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -8035,7 +8612,7 @@
         <v>409</v>
       </c>
       <c r="U69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70">
@@ -8043,7 +8620,7 @@
         <v>303</v>
       </c>
       <c r="U70" t="s">
-        <v>476</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -8051,7 +8628,7 @@
         <v>410</v>
       </c>
       <c r="U71" t="s">
-        <v>142</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72">
@@ -8059,7 +8636,7 @@
         <v>261</v>
       </c>
       <c r="U72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -8067,7 +8644,7 @@
         <v>343</v>
       </c>
       <c r="U73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -8075,7 +8652,7 @@
         <v>279</v>
       </c>
       <c r="U74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -8083,7 +8660,7 @@
         <v>285</v>
       </c>
       <c r="U75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -8091,7 +8668,7 @@
         <v>290</v>
       </c>
       <c r="U76" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -8099,7 +8676,7 @@
         <v>428</v>
       </c>
       <c r="U77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -8107,7 +8684,7 @@
         <v>331</v>
       </c>
       <c r="U78" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -8115,7 +8692,7 @@
         <v>269</v>
       </c>
       <c r="U79" t="s">
-        <v>200</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
@@ -8123,7 +8700,7 @@
         <v>280</v>
       </c>
       <c r="U80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -8131,7 +8708,7 @@
         <v>286</v>
       </c>
       <c r="U81" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -8139,7 +8716,7 @@
         <v>275</v>
       </c>
       <c r="U82" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83">
@@ -8147,7 +8724,7 @@
         <v>270</v>
       </c>
       <c r="U83" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -8155,7 +8732,7 @@
         <v>287</v>
       </c>
       <c r="U84" t="s">
-        <v>457</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -8163,7 +8740,7 @@
         <v>271</v>
       </c>
       <c r="U85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86">
@@ -8171,7 +8748,7 @@
         <v>272</v>
       </c>
       <c r="U86" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87">
@@ -8179,7 +8756,7 @@
         <v>304</v>
       </c>
       <c r="U87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -8187,7 +8764,7 @@
         <v>310</v>
       </c>
       <c r="U88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -8195,7 +8772,7 @@
         <v>294</v>
       </c>
       <c r="U89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -8203,7 +8780,7 @@
         <v>339</v>
       </c>
       <c r="U90" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -8211,7 +8788,7 @@
         <v>276</v>
       </c>
       <c r="U91" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92">
@@ -8219,126 +8796,131 @@
         <v>277</v>
       </c>
       <c r="U92" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>461</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1514,13 +1515,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="145" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2438,8 +2457,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3835,8 +3955,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6412,6 +6685,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6419,7 +6974,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6905,49 +7460,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7272,7 +7875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7291,75 +7894,78 @@
         <v>370</v>
       </c>
       <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>346</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>238</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>356</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7371,1556 +7977,1576 @@
         <v>371</v>
       </c>
       <c r="C2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>470</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>348</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>314</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>383</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>432</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>416</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>429</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>252</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>216</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>397</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>418</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>419</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>380</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>406</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>170</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>175</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>182</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>431</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
       </c>
       <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" t="s">
         <v>479</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>364</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>349</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>340</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>333</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>430</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>239</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>217</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>398</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>420</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>381</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>407</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>97</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>171</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>176</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>363</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>386</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>471</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>350</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>237</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>334</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>240</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>218</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>399</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>421</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>408</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>353</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>172</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>177</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>423</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>480</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>462</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>335</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>477</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>347</v>
       </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>485</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>241</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>219</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>400</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>422</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>358</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>354</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>173</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>178</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>184</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>424</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>387</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>472</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>242</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>390</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>401</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>360</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>98</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>466</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>179</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>185</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>425</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>223</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>365</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>468</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>243</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>417</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>402</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>359</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>467</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>180</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>186</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>426</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>317</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>366</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>244</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>361</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>100</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>174</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>181</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>187</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>427</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>305</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>389</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>245</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>404</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>362</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>208</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>188</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>314</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>351</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>473</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>433</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>246</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>405</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>256</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>189</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="s">
         <v>254</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>273</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>464</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>247</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>257</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>258</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>318</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>262</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>322</v>
       </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>248</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
         <v>340</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>315</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>323</v>
       </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>253</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>325</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>263</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>324</v>
       </c>
-      <c r="I14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>249</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>102</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>264</v>
       </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>478</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>250</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>103</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>384</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>316</v>
       </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
         <v>251</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>74</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" t="s">
         <v>385</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
-        <v>379</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
         <v>104</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
         <v>414</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>379</v>
+      </c>
+      <c r="V18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>295</v>
       </c>
-      <c r="I19" t="s">
-        <v>391</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>296</v>
       </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>391</v>
+      </c>
+      <c r="V20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" t="s">
         <v>255</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>297</v>
       </c>
-      <c r="I21" t="s">
-        <v>463</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>298</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>463</v>
+      </c>
+      <c r="V22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>289</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>278</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>469</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="V26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>226</v>
       </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>225</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>330</v>
+      </c>
+      <c r="V52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>330</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>267</v>
+      </c>
+      <c r="V53" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>267</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="V54" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>291</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>292</v>
+      </c>
+      <c r="V55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>292</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="V56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>293</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>302</v>
+      </c>
+      <c r="V57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>302</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>311</v>
+      </c>
+      <c r="V58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>311</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>336</v>
+      </c>
+      <c r="V59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>336</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>308</v>
+      </c>
+      <c r="V60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>308</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>309</v>
+      </c>
+      <c r="V61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>309</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>368</v>
+      </c>
+      <c r="V62" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>368</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>369</v>
+      </c>
+      <c r="V63" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>369</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>344</v>
+      </c>
+      <c r="V64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>344</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>312</v>
+      </c>
+      <c r="V65" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>312</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+      <c r="V66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>268</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>352</v>
+      </c>
+      <c r="V67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>352</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>313</v>
+      </c>
+      <c r="V68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>313</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>409</v>
+      </c>
+      <c r="V69" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>409</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="V70" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>303</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>410</v>
+      </c>
+      <c r="V71" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>410</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>261</v>
+      </c>
+      <c r="V72" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>261</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>343</v>
+      </c>
+      <c r="V73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>343</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>279</v>
+      </c>
+      <c r="V74" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>279</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>285</v>
+      </c>
+      <c r="V75" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>285</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="V76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>290</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>428</v>
+      </c>
+      <c r="V77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>428</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>331</v>
+      </c>
+      <c r="V78" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>331</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+      <c r="V79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>269</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>280</v>
+      </c>
+      <c r="V80" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>280</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>286</v>
+      </c>
+      <c r="V81" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>286</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c r="V82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="V83" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>270</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>287</v>
+      </c>
+      <c r="V84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>287</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+      <c r="V85" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>272</v>
+      </c>
+      <c r="V86" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>272</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>304</v>
+      </c>
+      <c r="V87" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>304</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="V88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>310</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>294</v>
+      </c>
+      <c r="V89" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>294</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>339</v>
+      </c>
+      <c r="V90" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>339</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+      <c r="V91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>276</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>277</v>
+      </c>
+      <c r="V92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>277</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1533,13 +1533,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="177" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2558,8 +2561,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4108,8 +4212,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6967,6 +7224,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6974,7 +7513,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7505,52 +8044,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="147" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7995,7 +8582,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
         <v>314</v>
@@ -8078,7 +8665,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J3" t="s">
         <v>340</v>
@@ -8149,7 +8736,7 @@
         <v>471</v>
       </c>
       <c r="I4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
         <v>237</v>
@@ -8220,7 +8807,7 @@
         <v>477</v>
       </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
         <v>485</v>
@@ -8280,6 +8867,9 @@
       </c>
       <c r="G6" t="s">
         <v>472</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1536,13 +1536,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="177" x14ac:knownFonts="1">
+  <fonts count="209" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2662,8 +2674,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4365,8 +4579,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7506,6 +8026,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7513,7 +8597,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="235">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8092,52 +9176,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8462,7 +9642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9330,7 +10510,7 @@
         <v>295</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -9347,7 +10527,7 @@
         <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>107</v>
@@ -9364,7 +10544,7 @@
         <v>297</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="V21" t="s">
         <v>108</v>
@@ -9381,7 +10561,7 @@
         <v>298</v>
       </c>
       <c r="J22" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>109</v>
@@ -9398,7 +10578,7 @@
         <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="V23" t="s">
         <v>110</v>
@@ -9415,7 +10595,7 @@
         <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>111</v>
@@ -9431,6 +10611,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>112</v>
       </c>
@@ -9465,7 +10648,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
@@ -9476,7 +10659,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>63</v>
+        <v>490</v>
       </c>
       <c r="F29" t="s">
         <v>283</v>
@@ -9487,7 +10670,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="F30" t="s">
         <v>215</v>
@@ -9498,7 +10681,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>274</v>
@@ -9509,7 +10692,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>284</v>
@@ -9520,7 +10703,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>259</v>
@@ -9531,7 +10714,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>329</v>
@@ -9542,7 +10725,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>306</v>
@@ -9553,7 +10736,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>260</v>
@@ -9563,6 +10746,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
         <v>307</v>
       </c>
@@ -9571,6 +10757,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" t="s">
         <v>266</v>
       </c>
@@ -9855,7 +11044,7 @@
         <v>343</v>
       </c>
       <c r="V73" t="s">
-        <v>142</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74">
@@ -9863,7 +11052,7 @@
         <v>279</v>
       </c>
       <c r="V74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
@@ -9871,7 +11060,7 @@
         <v>285</v>
       </c>
       <c r="V75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76">
@@ -9879,7 +11068,7 @@
         <v>290</v>
       </c>
       <c r="V76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
@@ -9887,7 +11076,7 @@
         <v>428</v>
       </c>
       <c r="V77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
@@ -9895,7 +11084,7 @@
         <v>331</v>
       </c>
       <c r="V78" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -9903,7 +11092,7 @@
         <v>269</v>
       </c>
       <c r="V79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80">
@@ -9911,7 +11100,7 @@
         <v>280</v>
       </c>
       <c r="V80" t="s">
-        <v>475</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81">
@@ -9919,7 +11108,7 @@
         <v>286</v>
       </c>
       <c r="V81" t="s">
-        <v>200</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82">
@@ -9927,7 +11116,7 @@
         <v>275</v>
       </c>
       <c r="V82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -9935,7 +11124,7 @@
         <v>270</v>
       </c>
       <c r="V83" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -9943,7 +11132,7 @@
         <v>287</v>
       </c>
       <c r="V84" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85">
@@ -9951,7 +11140,7 @@
         <v>271</v>
       </c>
       <c r="V85" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -9959,7 +11148,7 @@
         <v>272</v>
       </c>
       <c r="V86" t="s">
-        <v>457</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -9967,7 +11156,7 @@
         <v>304</v>
       </c>
       <c r="V87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88">
@@ -9975,7 +11164,7 @@
         <v>310</v>
       </c>
       <c r="V88" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89">
@@ -9983,7 +11172,7 @@
         <v>294</v>
       </c>
       <c r="V89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -9991,7 +11180,7 @@
         <v>339</v>
       </c>
       <c r="V90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -9999,7 +11188,7 @@
         <v>276</v>
       </c>
       <c r="V91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
@@ -10007,136 +11196,141 @@
         <v>277</v>
       </c>
       <c r="V92" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>461</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7119" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1548,13 +1549,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="209" x14ac:knownFonts="1">
+  <fonts count="225" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2876,8 +2919,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4885,8 +5029,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8590,6 +8887,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8597,7 +9176,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="251">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9272,52 +9851,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="199" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9642,7 +10269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9691,48 +10318,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>238</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>411</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>412</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>356</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>413</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9774,48 +10404,51 @@
         <v>432</v>
       </c>
       <c r="M2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" t="s">
         <v>416</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>429</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>252</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>397</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>418</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>419</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>380</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>170</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>182</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>431</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9842,7 +10475,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
         <v>348</v>
@@ -9856,43 +10489,46 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>499</v>
+      </c>
+      <c r="O3" t="s">
         <v>430</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>398</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>420</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>381</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>97</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>171</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>363</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>183</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9915,6 +10551,9 @@
       <c r="G4" t="s">
         <v>471</v>
       </c>
+      <c r="H4" t="s">
+        <v>495</v>
+      </c>
       <c r="I4" t="s">
         <v>349</v>
       </c>
@@ -9927,43 +10566,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>500</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>240</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>399</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>421</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>357</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>353</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>172</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>183</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>423</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9995,40 +10637,40 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>241</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>219</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>400</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>422</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>358</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>173</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>424</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10057,37 +10699,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>242</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>390</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>401</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>360</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>466</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>185</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>425</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10113,37 +10755,37 @@
       <c r="L7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>243</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>417</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>402</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>359</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>99</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>467</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>186</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>426</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10169,34 +10811,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>244</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>403</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>361</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>100</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>187</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>427</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10222,26 +10864,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>245</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>404</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>362</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>208</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" t="s">
-        <v>234</v>
+      <c r="AB9" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="10">
@@ -10263,23 +10905,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>433</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>246</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>405</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>256</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>189</v>
       </c>
-      <c r="AA10" t="s">
-        <v>235</v>
+      <c r="AB10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11">
@@ -10299,22 +10941,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>464</v>
-      </c>
-      <c r="N11" t="s">
+        <v>496</v>
+      </c>
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>247</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>257</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>258</v>
       </c>
-      <c r="AA11" t="s">
-        <v>236</v>
+      <c r="AB11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -10334,24 +10976,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>464</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>248</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>101</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>190</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
         <v>340</v>
@@ -10366,24 +11011,27 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>497</v>
+      </c>
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>253</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>325</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>191</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -10398,24 +11046,24 @@
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>94</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>249</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>102</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -10426,22 +11074,25 @@
       <c r="J15" t="s">
         <v>478</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>250</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
         <v>384</v>
@@ -10452,19 +11103,22 @@
       <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>251</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>385</v>
@@ -10475,16 +11129,16 @@
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>414</v>
@@ -10495,13 +11149,13 @@
       <c r="J18" t="s">
         <v>379</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -10512,13 +11166,13 @@
       <c r="J19" t="s">
         <v>492</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -10529,13 +11183,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
         <v>255</v>
@@ -10546,13 +11200,13 @@
       <c r="J21" t="s">
         <v>391</v>
       </c>
-      <c r="V21" t="s">
-        <v>108</v>
+      <c r="W21" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -10563,13 +11217,13 @@
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>320</v>
@@ -10580,13 +11234,13 @@
       <c r="J23" t="s">
         <v>463</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
@@ -10597,13 +11251,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>469</v>
@@ -10614,13 +11268,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
@@ -10628,13 +11282,13 @@
       <c r="F26" t="s">
         <v>281</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="D27" t="s">
         <v>225</v>
@@ -10642,18 +11296,21 @@
       <c r="F27" t="s">
         <v>265</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="s">
         <v>489</v>
       </c>
       <c r="F28" t="s">
         <v>282</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10664,7 +11321,7 @@
       <c r="F29" t="s">
         <v>283</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10675,7 +11332,7 @@
       <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10686,7 +11343,7 @@
       <c r="F31" t="s">
         <v>274</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10697,7 +11354,7 @@
       <c r="F32" t="s">
         <v>284</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10708,7 +11365,7 @@
       <c r="F33" t="s">
         <v>259</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10719,7 +11376,7 @@
       <c r="F34" t="s">
         <v>329</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10730,7 +11387,7 @@
       <c r="F35" t="s">
         <v>306</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10741,7 +11398,7 @@
       <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10752,7 +11409,7 @@
       <c r="F37" t="s">
         <v>307</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10763,7 +11420,7 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>392</v>
       </c>
     </row>
@@ -10771,7 +11428,7 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10779,7 +11436,7 @@
       <c r="F40" t="s">
         <v>211</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10787,7 +11444,7 @@
       <c r="F41" t="s">
         <v>288</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10795,7 +11452,7 @@
       <c r="F42" t="s">
         <v>299</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10803,7 +11460,7 @@
       <c r="F43" t="s">
         <v>300</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10811,7 +11468,7 @@
       <c r="F44" t="s">
         <v>342</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10819,7 +11476,7 @@
       <c r="F45" t="s">
         <v>341</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10827,7 +11484,7 @@
       <c r="F46" t="s">
         <v>210</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>212</v>
       </c>
     </row>
@@ -10835,7 +11492,7 @@
       <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10843,7 +11500,7 @@
       <c r="F48" t="s">
         <v>338</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10851,7 +11508,7 @@
       <c r="F49" t="s">
         <v>367</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10859,7 +11516,7 @@
       <c r="F50" t="s">
         <v>301</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10867,470 +11524,485 @@
       <c r="F51" t="s">
         <v>355</v>
       </c>
-      <c r="V51" t="s">
-        <v>486</v>
+      <c r="W51" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>330</v>
       </c>
-      <c r="V52" t="s">
-        <v>130</v>
+      <c r="W52" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>267</v>
       </c>
-      <c r="V53" t="s">
-        <v>345</v>
+      <c r="W53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>291</v>
       </c>
-      <c r="V54" t="s">
-        <v>481</v>
+      <c r="W54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>292</v>
       </c>
-      <c r="V55" t="s">
-        <v>131</v>
+      <c r="W55" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>293</v>
       </c>
-      <c r="V56" t="s">
-        <v>132</v>
+      <c r="W56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>302</v>
       </c>
-      <c r="V57" t="s">
-        <v>133</v>
+      <c r="W57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>311</v>
       </c>
-      <c r="V58" t="s">
-        <v>134</v>
+      <c r="W58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>336</v>
       </c>
-      <c r="V59" t="s">
-        <v>135</v>
+      <c r="W59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>308</v>
       </c>
-      <c r="V60" t="s">
-        <v>136</v>
+      <c r="W60" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>309</v>
       </c>
-      <c r="V61" t="s">
-        <v>137</v>
+      <c r="W61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>368</v>
       </c>
-      <c r="V62" t="s">
-        <v>459</v>
+      <c r="W62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>369</v>
       </c>
-      <c r="V63" t="s">
-        <v>213</v>
+      <c r="W63" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>344</v>
       </c>
-      <c r="V64" t="s">
-        <v>388</v>
+      <c r="W64" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>312</v>
       </c>
-      <c r="V65" t="s">
-        <v>465</v>
+      <c r="W65" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>268</v>
       </c>
-      <c r="V66" t="s">
-        <v>138</v>
+      <c r="W66" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>352</v>
       </c>
-      <c r="V67" t="s">
-        <v>139</v>
+      <c r="W67" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>313</v>
       </c>
-      <c r="V68" t="s">
-        <v>140</v>
+      <c r="W68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>409</v>
       </c>
-      <c r="V69" t="s">
-        <v>141</v>
+      <c r="W69" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>303</v>
       </c>
-      <c r="V70" t="s">
-        <v>196</v>
+      <c r="W70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>410</v>
       </c>
-      <c r="V71" t="s">
-        <v>197</v>
+      <c r="W71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>261</v>
       </c>
-      <c r="V72" t="s">
-        <v>476</v>
+      <c r="W72" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>343</v>
       </c>
-      <c r="V73" t="s">
-        <v>491</v>
+      <c r="W73" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>279</v>
       </c>
-      <c r="V74" t="s">
-        <v>142</v>
+      <c r="W74" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>285</v>
       </c>
-      <c r="V75" t="s">
-        <v>143</v>
+      <c r="W75" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>290</v>
       </c>
-      <c r="V76" t="s">
-        <v>144</v>
+      <c r="W76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>428</v>
       </c>
-      <c r="V77" t="s">
-        <v>145</v>
+      <c r="W77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>331</v>
       </c>
-      <c r="V78" t="s">
-        <v>146</v>
+      <c r="W78" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>269</v>
       </c>
-      <c r="V79" t="s">
-        <v>198</v>
+      <c r="W79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>280</v>
       </c>
-      <c r="V80" t="s">
-        <v>199</v>
+      <c r="W80" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>286</v>
       </c>
-      <c r="V81" t="s">
-        <v>475</v>
+      <c r="W81" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>275</v>
       </c>
-      <c r="V82" t="s">
-        <v>200</v>
+      <c r="W82" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>270</v>
       </c>
-      <c r="V83" t="s">
-        <v>201</v>
+      <c r="W83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>287</v>
       </c>
-      <c r="V84" t="s">
-        <v>214</v>
+      <c r="W84" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>271</v>
       </c>
-      <c r="V85" t="s">
-        <v>147</v>
+      <c r="W85" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>272</v>
       </c>
-      <c r="V86" t="s">
-        <v>202</v>
+      <c r="W86" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>304</v>
       </c>
-      <c r="V87" t="s">
-        <v>457</v>
+      <c r="W87" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>310</v>
       </c>
-      <c r="V88" t="s">
-        <v>458</v>
+      <c r="W88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>294</v>
       </c>
-      <c r="V89" t="s">
-        <v>203</v>
+      <c r="W89" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>339</v>
       </c>
-      <c r="V90" t="s">
-        <v>204</v>
+      <c r="W90" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>276</v>
       </c>
-      <c r="V91" t="s">
-        <v>205</v>
+      <c r="W91" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>277</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7119" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1591,13 +1592,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="225" x14ac:knownFonts="1">
+  <fonts count="273" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3020,8 +3072,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5182,8 +5537,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9169,6 +9983,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9176,7 +10836,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9899,52 +11559,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="212" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="215" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="227" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="228" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="231" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="243" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="244" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="247" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10269,7 +12073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10291,78 +12095,81 @@
         <v>482</v>
       </c>
       <c r="D1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>493</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10377,79 +12184,82 @@
         <v>483</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>470</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>488</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>432</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>498</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>397</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>380</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" t="s">
-        <v>227</v>
+      <c r="AC2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3">
@@ -10463,1546 +12273,1595 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>494</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>340</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>333</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>499</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>420</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>381</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>363</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AB3" t="s">
-        <v>228</v>
+      <c r="AC3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>386</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>471</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>495</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>500</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>218</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>423</v>
       </c>
-      <c r="AB4" t="s">
-        <v>229</v>
+      <c r="AC4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" t="s">
         <v>480</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>462</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>350</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>400</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>422</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>424</v>
       </c>
-      <c r="AB5" t="s">
-        <v>230</v>
+      <c r="AC5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>472</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>242</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>390</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>360</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>466</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>425</v>
       </c>
-      <c r="AB6" t="s">
-        <v>231</v>
+      <c r="AC6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>365</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>359</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>467</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" t="s">
-        <v>232</v>
+      <c r="AC7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>366</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>244</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>403</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>361</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>427</v>
       </c>
-      <c r="AB8" t="s">
-        <v>233</v>
+      <c r="AC8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>245</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>362</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
-        <v>505</v>
+      <c r="AC9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
         <v>314</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>473</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>389</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>433</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>246</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>405</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>256</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>506</v>
+      <c r="AC10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>257</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
-        <v>234</v>
+      <c r="AC11" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
         <v>318</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>464</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="AB12" t="s">
-        <v>235</v>
+      <c r="AC12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>493</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>340</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>253</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>325</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>191</v>
       </c>
-      <c r="AB13" t="s">
-        <v>236</v>
+      <c r="AC13" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>192</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>478</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q15" t="s">
         <v>250</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>193</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>385</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA17" t="s">
         <v>487</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>379</v>
       </c>
-      <c r="W18" t="s">
-        <v>105</v>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>492</v>
       </c>
-      <c r="W19" t="s">
-        <v>106</v>
+      <c r="X19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>296</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>107</v>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>391</v>
       </c>
-      <c r="W21" t="s">
-        <v>501</v>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>298</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
+      <c r="X22" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>463</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
+      <c r="X23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>278</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>111</v>
+      <c r="X24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>469</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>112</v>
+      <c r="X25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="W26" t="s">
-        <v>113</v>
+      <c r="X26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="W27" t="s">
-        <v>326</v>
+      <c r="X27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>489</v>
+      </c>
+      <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="X28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>226</v>
       </c>
-      <c r="D28" t="s">
-        <v>489</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>490</v>
+      </c>
+      <c r="G29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>490</v>
-      </c>
-      <c r="F29" t="s">
-        <v>283</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="X30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>274</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>284</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>259</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>306</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>260</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>307</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>266</v>
+      </c>
+      <c r="X38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>266</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="X40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>211</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>288</v>
+      </c>
+      <c r="X41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>288</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>299</v>
+      </c>
+      <c r="X42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>299</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>300</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>342</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>341</v>
+      </c>
+      <c r="X45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>341</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>210</v>
+      </c>
+      <c r="X46" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>210</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>319</v>
+      </c>
+      <c r="X47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>319</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>338</v>
+      </c>
+      <c r="X48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>338</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>367</v>
+      </c>
+      <c r="X49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>367</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>301</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>355</v>
+      </c>
+      <c r="X51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>355</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>330</v>
+      </c>
+      <c r="X52" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>330</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>267</v>
+      </c>
+      <c r="X53" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>267</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>291</v>
+      </c>
+      <c r="X54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>291</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>292</v>
+      </c>
+      <c r="X55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>292</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>293</v>
+      </c>
+      <c r="X56" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>293</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="X57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>302</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>311</v>
+      </c>
+      <c r="X58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>311</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>336</v>
+      </c>
+      <c r="X59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>336</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>308</v>
+      </c>
+      <c r="X60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>308</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>309</v>
+      </c>
+      <c r="X61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>368</v>
+      </c>
+      <c r="X62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>368</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>369</v>
+      </c>
+      <c r="X63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>369</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>344</v>
+      </c>
+      <c r="X64" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>344</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="X65" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>312</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="X66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>268</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>352</v>
+      </c>
+      <c r="X67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>352</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+      <c r="X68" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>313</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>409</v>
+      </c>
+      <c r="X69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>409</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="X70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>303</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>410</v>
+      </c>
+      <c r="X71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>410</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>261</v>
+      </c>
+      <c r="X72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>261</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>343</v>
+      </c>
+      <c r="X73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>343</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>279</v>
+      </c>
+      <c r="X74" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>279</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>285</v>
+      </c>
+      <c r="X75" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>285</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>290</v>
+      </c>
+      <c r="X76" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>290</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>428</v>
+      </c>
+      <c r="X77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>428</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>331</v>
+      </c>
+      <c r="X78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>331</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>269</v>
+      </c>
+      <c r="X79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>269</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>280</v>
+      </c>
+      <c r="X80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>286</v>
+      </c>
+      <c r="X81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>280</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>275</v>
+      </c>
+      <c r="X82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>286</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>270</v>
+      </c>
+      <c r="X83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>275</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+      <c r="X84" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>270</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>271</v>
+      </c>
+      <c r="X85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>287</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>272</v>
+      </c>
+      <c r="X86" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>271</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>304</v>
+      </c>
+      <c r="X87" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>272</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>310</v>
+      </c>
+      <c r="X88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>304</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>294</v>
+      </c>
+      <c r="X89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>310</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>339</v>
+      </c>
+      <c r="X90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>294</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>276</v>
+      </c>
+      <c r="X91" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>339</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>277</v>
+      </c>
+      <c r="X92" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>276</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>277</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8644" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1643,13 +1643,34 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="273" x14ac:knownFonts="1">
+  <fonts count="289" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3375,8 +3396,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5996,8 +6118,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10829,6 +11104,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10836,7 +11393,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="315">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11703,52 +12260,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="260" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="263" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12073,7 +12678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12503,6 +13108,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>524</v>
+      </c>
       <c r="G6" t="s">
         <v>387</v>
       </c>
@@ -12625,7 +13233,7 @@
         <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -12678,7 +13286,7 @@
         <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -12719,7 +13327,7 @@
         <v>473</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -12757,7 +13365,7 @@
         <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="M11" t="s">
         <v>496</v>
@@ -12792,7 +13400,7 @@
         <v>322</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="M12" t="s">
         <v>464</v>
@@ -12827,7 +13435,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>497</v>
@@ -12862,7 +13470,7 @@
         <v>324</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -12894,7 +13502,7 @@
         <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -12926,7 +13534,7 @@
         <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -12958,7 +13566,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>523</v>
@@ -12981,7 +13589,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>478</v>
       </c>
       <c r="X18" t="s">
         <v>104</v>
@@ -13001,7 +13609,7 @@
         <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>105</v>
@@ -13021,7 +13629,7 @@
         <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>106</v>
@@ -13041,7 +13649,7 @@
         <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="X21" t="s">
         <v>107</v>
@@ -13061,7 +13669,7 @@
         <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="X22" t="s">
         <v>501</v>
@@ -13078,7 +13686,7 @@
         <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>463</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -13095,7 +13703,7 @@
         <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -13112,7 +13720,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -13128,6 +13736,9 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
+      <c r="K26" t="s">
+        <v>463</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -13142,6 +13753,9 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -13156,6 +13770,9 @@
       <c r="G28" t="s">
         <v>282</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>326</v>
       </c>
@@ -13212,7 +13829,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>525</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -13223,7 +13840,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -13234,7 +13851,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
         <v>209</v>
@@ -13245,7 +13862,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -13256,7 +13873,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
         <v>337</v>
@@ -13267,7 +13884,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X38" t="s">
         <v>434</v>
@@ -13275,7 +13892,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="X39" t="s">
         <v>392</v>
@@ -13283,7 +13900,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -13291,7 +13908,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -13299,7 +13916,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -13307,7 +13924,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -13315,7 +13932,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -13323,7 +13940,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -13331,7 +13948,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="X46" t="s">
         <v>460</v>
@@ -13339,7 +13956,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X47" t="s">
         <v>212</v>
@@ -13347,7 +13964,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -13355,7 +13972,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -13363,7 +13980,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -13371,7 +13988,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -13379,7 +13996,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
         <v>502</v>
@@ -13387,7 +14004,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="X53" t="s">
         <v>486</v>
@@ -13395,7 +14012,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -13403,7 +14020,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X55" t="s">
         <v>345</v>
@@ -13411,7 +14028,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
         <v>481</v>
@@ -13419,7 +14036,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -13427,7 +14044,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -13435,7 +14052,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -13443,7 +14060,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -13451,7 +14068,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -13459,7 +14076,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -13467,7 +14084,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -13475,7 +14092,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>459</v>
@@ -13483,7 +14100,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s">
         <v>503</v>
@@ -13491,7 +14108,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>213</v>
@@ -13499,7 +14116,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
         <v>388</v>
@@ -13507,7 +14124,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X68" t="s">
         <v>465</v>
@@ -13515,7 +14132,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -13523,7 +14140,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -13531,7 +14148,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -13539,7 +14156,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -13547,7 +14164,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="X73" t="s">
         <v>196</v>
@@ -13555,7 +14172,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>279</v>
+        <v>526</v>
       </c>
       <c r="X74" t="s">
         <v>197</v>
@@ -13563,7 +14180,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="X75" t="s">
         <v>476</v>
@@ -13571,7 +14188,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X76" t="s">
         <v>491</v>
@@ -13579,7 +14196,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -13587,7 +14204,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -13595,7 +14212,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -13603,7 +14220,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
         <v>517</v>
@@ -13611,7 +14228,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -13619,7 +14236,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -13627,7 +14244,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="X83" t="s">
         <v>198</v>
@@ -13635,7 +14252,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="X84" t="s">
         <v>504</v>
@@ -13643,7 +14260,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
         <v>199</v>
@@ -13651,7 +14268,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="X86" t="s">
         <v>475</v>
@@ -13659,7 +14276,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="X87" t="s">
         <v>200</v>
@@ -13667,7 +14284,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="X88" t="s">
         <v>201</v>
@@ -13675,7 +14292,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="X89" t="s">
         <v>214</v>
@@ -13683,7 +14300,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -13691,7 +14308,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s">
         <v>202</v>
@@ -13699,18 +14316,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="X92" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
       <c r="X93" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>277</v>
+      </c>
       <c r="X94" t="s">
         <v>203</v>
       </c>
@@ -13742,126 +14365,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>148</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>461</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10202" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1664,13 +1664,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="289" x14ac:knownFonts="1">
+  <fonts count="321" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3497,8 +3503,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="550">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6271,8 +6479,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11386,6 +11934,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11393,7 +12505,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="347">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12308,52 +13420,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="275" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="276" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="278" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="279" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="291" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="292" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="295" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="522" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="525" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="531" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="537" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="540" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12678,7 +13886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14370,126 +15578,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>461</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10202" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11258" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1670,13 +1671,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="321" x14ac:knownFonts="1">
+  <fonts count="353" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3705,8 +3727,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="550">
+  <fills count="610">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6819,8 +7043,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12498,6 +13062,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12505,7 +13633,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="379">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13516,52 +14644,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="522" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="522" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="525" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="525" fontId="307" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="531" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="531" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="311" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="537" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="537" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="540" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="540" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="543" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="543" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="543" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="552" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="555" fontId="323" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="558" fontId="324" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="561" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="327" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="567" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="570" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="573" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="573" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="582" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="585" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="597" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13886,7 +15110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13938,51 +15162,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O1" t="s">
         <v>493</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14027,51 +15254,54 @@
         <v>432</v>
       </c>
       <c r="N2" t="s">
+        <v>534</v>
+      </c>
+      <c r="O2" t="s">
         <v>498</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>512</v>
       </c>
     </row>
@@ -14116,45 +15346,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>535</v>
+      </c>
+      <c r="O3" t="s">
         <v>499</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14196,45 +15429,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>536</v>
+      </c>
+      <c r="O4" t="s">
         <v>500</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -14269,40 +15505,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14334,37 +15573,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>466</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14390,37 +15632,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>467</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -14446,34 +15691,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -14499,25 +15744,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -14540,22 +15785,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>433</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>505</v>
       </c>
     </row>
@@ -14578,19 +15823,19 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>513</v>
       </c>
     </row>
@@ -14613,19 +15858,19 @@
       <c r="M12" t="s">
         <v>464</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>514</v>
       </c>
     </row>
@@ -14648,25 +15893,25 @@
       <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -14683,25 +15928,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -14715,25 +15960,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>521</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -14747,25 +15992,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>522</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -14776,19 +16021,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>523</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>487</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -14799,16 +16044,16 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -14819,16 +16064,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -14839,16 +16084,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -14859,16 +16104,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -14879,13 +16124,13 @@
       <c r="K22" t="s">
         <v>492</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -14896,13 +16141,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -14913,13 +16158,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>469</v>
@@ -14930,13 +16175,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -14947,13 +16192,13 @@
       <c r="K26" t="s">
         <v>463</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -14964,13 +16209,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>489</v>
@@ -14981,13 +16226,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>490</v>
@@ -14995,18 +16240,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -15017,7 +16265,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15028,7 +16276,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -15039,7 +16287,7 @@
       <c r="G33" t="s">
         <v>525</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15050,7 +16298,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -15061,7 +16309,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -15072,7 +16320,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15083,7 +16331,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15094,7 +16342,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -15102,7 +16350,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -15110,7 +16358,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -15118,7 +16366,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15126,7 +16374,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -15134,7 +16382,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -15142,7 +16390,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15150,7 +16398,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15158,7 +16406,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>460</v>
       </c>
     </row>
@@ -15166,7 +16414,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15174,7 +16422,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15182,7 +16430,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -15190,7 +16438,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -15198,7 +16446,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -15206,7 +16454,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>502</v>
       </c>
     </row>
@@ -15214,7 +16462,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>486</v>
       </c>
     </row>
@@ -15222,7 +16470,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15230,7 +16478,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -15238,7 +16486,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>481</v>
       </c>
     </row>
@@ -15246,7 +16494,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -15254,7 +16502,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -15262,7 +16510,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -15270,7 +16518,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -15278,7 +16526,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -15286,7 +16534,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15294,7 +16542,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -15302,7 +16550,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>459</v>
       </c>
     </row>
@@ -15310,7 +16558,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>503</v>
       </c>
     </row>
@@ -15318,7 +16566,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -15326,7 +16574,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -15334,7 +16582,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>465</v>
       </c>
     </row>
@@ -15342,7 +16590,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -15350,7 +16598,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15358,7 +16606,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -15366,7 +16614,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -15374,7 +16622,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -15382,7 +16630,7 @@
       <c r="G74" t="s">
         <v>526</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -15390,7 +16638,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>476</v>
       </c>
     </row>
@@ -15398,7 +16646,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15406,7 +16654,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15414,7 +16662,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -15422,7 +16670,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -15430,7 +16678,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>517</v>
       </c>
     </row>
@@ -15438,7 +16686,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -15446,7 +16694,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -15454,7 +16702,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -15462,7 +16710,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15470,7 +16718,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -15478,7 +16726,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>475</v>
       </c>
     </row>
@@ -15486,7 +16734,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15494,7 +16742,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -15502,7 +16750,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -15510,7 +16758,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15518,7 +16766,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -15526,7 +16774,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>457</v>
       </c>
     </row>
@@ -15534,7 +16782,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>458</v>
       </c>
     </row>
@@ -15542,172 +16790,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11258" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12321" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1692,13 +1692,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="353" x14ac:knownFonts="1">
+  <fonts count="385" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3929,8 +3941,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="610">
+  <fills count="670">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7383,8 +7597,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13626,6 +14180,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13633,7 +14751,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="411">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14740,52 +15858,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="582" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="582" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="585" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="585" fontId="339" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="588" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="591" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="597" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="597" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="600" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="603" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="603" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="612" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="615" fontId="355" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="618" fontId="356" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="621" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="359" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="627" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="630" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="633" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="633" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="642" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="648" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="651" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="657" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="660" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="663" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="663" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15506,7 +16720,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -15574,7 +16788,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -15633,7 +16847,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -15691,6 +16905,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>537</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -15744,6 +16961,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>538</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -15785,6 +17005,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>539</v>
+      </c>
       <c r="Q10" t="s">
         <v>433</v>
       </c>
@@ -16173,7 +17396,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>543</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -16190,7 +17413,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -16207,7 +17430,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -16224,7 +17447,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -16239,6 +17462,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12321" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12856" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1704,13 +1704,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="385" x14ac:knownFonts="1">
+  <fonts count="401" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4143,8 +4155,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="670">
+  <fills count="700">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7937,8 +8050,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14744,6 +15027,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14751,7 +15316,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="427">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15954,52 +16519,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="642" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="642" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="645" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="645" fontId="371" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="648" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="648" fontId="372" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="651" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="651" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="657" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="657" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="660" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="660" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="663" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="663" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="663" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="663" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="672" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="675" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="678" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="687" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="690" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16530,7 +17143,7 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>479</v>
@@ -16613,7 +17226,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -16696,7 +17309,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E5" t="s">
         <v>480</v>
@@ -16720,7 +17333,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -16766,6 +17379,9 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="D6" t="s">
+        <v>511</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -16788,7 +17404,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -16847,7 +17463,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -16906,7 +17522,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -16962,7 +17578,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="Q9" t="s">
         <v>91</v>
@@ -17006,7 +17622,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q10" t="s">
         <v>433</v>
@@ -17046,6 +17662,9 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
+      <c r="N11" t="s">
+        <v>538</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -17081,6 +17700,9 @@
       <c r="M12" t="s">
         <v>464</v>
       </c>
+      <c r="N12" t="s">
+        <v>539</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -17396,7 +18018,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12856" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13413" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1716,13 +1716,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="401" x14ac:knownFonts="1">
+  <fonts count="417" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4256,8 +4325,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="700">
+  <fills count="727">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8220,8 +8390,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="735">
     <border>
       <left/>
       <right/>
@@ -15309,6 +15632,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15316,7 +15965,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="443">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16567,52 +17216,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="672" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="672" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="675" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="675" fontId="387" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="678" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="678" fontId="388" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="681" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="391" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="687" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="687" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="690" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="690" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="693" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="693" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="705" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="708" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="711" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="717" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="708" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16937,7 +17634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17318,10 +18015,13 @@
         <v>462</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>549</v>
       </c>
       <c r="H5" t="s">
         <v>477</v>
+      </c>
+      <c r="I5" t="s">
+        <v>554</v>
       </c>
       <c r="J5" t="s">
         <v>350</v>
@@ -17389,7 +18089,7 @@
         <v>524</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>472</v>
@@ -17451,11 +18151,14 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>468</v>
       </c>
+      <c r="J7" t="s">
+        <v>555</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -17496,7 +18199,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8">
@@ -17510,7 +18213,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -17552,7 +18255,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
@@ -17566,7 +18269,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -17599,7 +18302,7 @@
         <v>188</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10">
@@ -17610,7 +18313,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>473</v>
@@ -17640,7 +18343,7 @@
         <v>189</v>
       </c>
       <c r="AD10" t="s">
-        <v>505</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -17651,7 +18354,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -17678,7 +18381,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>513</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -17689,7 +18392,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -17698,7 +18401,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
       <c r="N12" t="s">
         <v>539</v>
@@ -17716,7 +18419,7 @@
         <v>190</v>
       </c>
       <c r="AD12" t="s">
-        <v>514</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -17727,7 +18430,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -17736,7 +18439,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -17751,7 +18454,7 @@
         <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14">
@@ -17762,7 +18465,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -17771,7 +18474,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -17786,7 +18489,7 @@
         <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15">
@@ -17797,13 +18500,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>529</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>521</v>
@@ -17818,7 +18521,7 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16">
@@ -17829,13 +18532,13 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="Q16" t="s">
         <v>522</v>
@@ -17850,7 +18553,7 @@
         <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17">
@@ -17861,11 +18564,14 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>523</v>
       </c>
@@ -17873,7 +18579,7 @@
         <v>487</v>
       </c>
       <c r="AD17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
@@ -17884,16 +18590,19 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>478</v>
       </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19">
@@ -17904,7 +18613,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -17913,7 +18622,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20">
@@ -17924,7 +18633,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -17933,7 +18642,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21">
@@ -17944,7 +18653,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -17953,7 +18662,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22">
@@ -17961,16 +18670,19 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>548</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>492</v>
       </c>
       <c r="Y22" t="s">
         <v>501</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -17978,16 +18690,19 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="Y23" t="s">
         <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="24">
@@ -17995,16 +18710,19 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>558</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25">
@@ -18012,16 +18730,19 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>545</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26">
@@ -18029,16 +18750,19 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -18046,16 +18770,19 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>463</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -18063,16 +18790,16 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -18080,16 +18807,16 @@
         <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -18097,713 +18824,763 @@
         <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>525</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>525</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>266</v>
-      </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>550</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>460</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>486</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>345</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
+        <v>551</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>459</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>503</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
+        <v>552</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>526</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>476</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>526</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>475</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>553</v>
       </c>
       <c r="Y88" t="s">
-        <v>201</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>457</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>458</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>222</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>207</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>530</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>531</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>532</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>150</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>531</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>461</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,40 +18,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13413" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14538" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1785,13 +1786,46 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="417" x14ac:knownFonts="1">
+  <fonts count="449" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4426,8 +4460,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="727">
+  <fills count="781">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8543,8 +8779,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="735">
+  <borders count="799">
     <border>
       <left/>
       <right/>
@@ -15958,6 +16500,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15965,7 +17159,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="443">
+  <cellXfs count="475">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17264,52 +18458,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="702" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="702" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="705" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="705" fontId="403" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="708" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="708" fontId="404" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="711" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="711" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="717" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="717" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="708" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="708" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="720" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="720" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="720" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="729" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="732" fontId="419" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="735" fontId="420" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="738" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="423" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="744" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="735" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="747" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="747" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="756" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="759" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="762" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="771" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17634,7 +18924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17659,81 +18949,84 @@
         <v>507</v>
       </c>
       <c r="E1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>493</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -17751,81 +19044,84 @@
         <v>508</v>
       </c>
       <c r="E2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>470</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>488</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>432</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>534</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>498</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>512</v>
       </c>
     </row>
@@ -17842,76 +19138,76 @@
       <c r="D3" t="s">
         <v>544</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>494</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>535</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>499</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17925,82 +19221,82 @@
       <c r="D4" t="s">
         <v>509</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>471</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>495</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
-        <v>237</v>
-      </c>
       <c r="L4" t="s">
+        <v>580</v>
+      </c>
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>536</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>500</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
-        <v>353</v>
-      </c>
       <c r="Z4" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -18008,73 +19304,73 @@
       <c r="D5" t="s">
         <v>510</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>480</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>462</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>549</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>554</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
-        <v>485</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>546</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -18082,1505 +19378,1519 @@
       <c r="D6" t="s">
         <v>511</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>524</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>472</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>540</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>466</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>555</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>541</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>467</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
-        <v>527</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>542</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>527</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>547</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>473</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>537</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>433</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>573</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
-        <v>528</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>496</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>538</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
-        <v>389</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>528</v>
+      </c>
+      <c r="N12" t="s">
         <v>556</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>539</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>389</v>
+      </c>
+      <c r="N13" t="s">
         <v>464</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>533</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>497</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
-        <v>529</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>521</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>493</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>529</v>
+      </c>
+      <c r="N16" t="s">
         <v>557</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>522</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>523</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>487</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>478</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
+        <v>579</v>
+      </c>
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
-        <v>548</v>
-      </c>
-      <c r="G22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z22" t="s">
         <v>501</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
+        <v>548</v>
+      </c>
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s">
         <v>558</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
-        <v>545</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>469</v>
-      </c>
-      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>469</v>
+      </c>
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
-        <v>463</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
-        <v>489</v>
-      </c>
-      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>489</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>490</v>
       </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>560</v>
+      <c r="Z41" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>550</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>551</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>552</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>526</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14538" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15668" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1819,13 +1819,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="449" x14ac:knownFonts="1">
+  <fonts count="481" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4662,8 +4671,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="781">
+  <fills count="835">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9085,8 +9296,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="799">
+  <borders count="863">
     <border>
       <left/>
       <right/>
@@ -15996,6 +16513,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17159,7 +18328,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="507">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18554,52 +19723,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="756" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="756" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="759" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="759" fontId="435" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="762" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="762" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="439" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="771" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="771" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="774" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="774" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="777" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="783" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="786" fontId="451" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="789" fontId="452" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="792" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="455" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="798" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="789" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="801" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="801" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="810" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="813" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="816" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="819" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="825" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="816" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18924,7 +20189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19390,6 +20655,9 @@
       <c r="I6" t="s">
         <v>472</v>
       </c>
+      <c r="J6" t="s">
+        <v>582</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -19906,7 +21174,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>579</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -19926,7 +21194,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -19946,7 +21214,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -19966,7 +21234,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>548</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -19986,7 +21254,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>548</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -20006,7 +21274,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -20026,7 +21294,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -20046,7 +21314,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>469</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -20066,7 +21334,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>469</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -20086,7 +21354,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -20103,7 +21371,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -20120,7 +21388,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -20137,7 +21405,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -20148,7 +21416,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -20159,7 +21427,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -20170,7 +21438,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>525</v>
@@ -20181,7 +21449,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -20192,7 +21460,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -20203,7 +21471,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -20214,7 +21482,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -20225,7 +21493,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -20235,9 +21503,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -20711,186 +21976,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>458</v>
+        <v>583</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>530</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>461</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>564</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15668" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16233" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1834,7 +1834,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="481" x14ac:knownFonts="1">
+  <fonts count="497" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4873,8 +4873,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="835">
+  <fills count="862">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9602,8 +9703,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="863">
+  <borders count="895">
     <border>
       <left/>
       <right/>
@@ -16513,6 +16767,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18328,7 +18908,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="507">
+  <cellXfs count="523">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19819,52 +20399,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="810" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="810" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="813" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="813" fontId="467" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="816" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="816" fontId="468" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="819" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="819" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="825" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="825" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="816" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="816" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="828" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="828" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="840" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="843" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="855" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="855" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-03-with-iteration.xlsx
+++ b/artifact/script/web-03-with-iteration.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16233" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17363" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1834,7 +1834,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="497" x14ac:knownFonts="1">
+  <fonts count="529" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4974,8 +4974,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="862">
+  <fills count="916">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9856,8 +10058,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="895">
+  <borders count="959">
     <border>
       <left/>
       <right/>
@@ -16767,6 +17275,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18908,7 +20068,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="523">
+  <cellXfs count="555">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20447,52 +21607,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="840" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="840" fontId="483" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="484" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="843" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="843" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="855" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="855" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="855" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="855" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="496" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="864" fontId="497" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="867" fontId="499" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="870" fontId="500" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="873" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="503" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="879" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="870" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="882" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="882" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="891" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="894" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="897" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="900" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="906" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="897" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="909" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="909" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
